--- a/config/available-plugins.xlsx
+++ b/config/available-plugins.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepos\hwp-auto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepos\hwp-auto\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F60EFC4-20DF-4271-AA4C-5F5091BB668A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA0ED28-4625-44C3-87B5-85F2092A396F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15345" xr2:uid="{05E90B6D-048A-4866-A3E7-C97F8576301A}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="28800" windowHeight="15345" xr2:uid="{05E90B6D-048A-4866-A3E7-C97F8576301A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,86 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+  <si>
+    <t>Categorie</t>
+  </si>
+  <si>
+    <t>E-commerce</t>
+  </si>
+  <si>
+    <t>WooCommerce</t>
+  </si>
+  <si>
+    <t>Plugin Naam</t>
+  </si>
+  <si>
+    <t>Optimalisatie</t>
+  </si>
+  <si>
+    <t>Redis Cache</t>
+  </si>
+  <si>
+    <t>https://downloads.wordpress.org/plugin/redis-cache.2.5.4.zip</t>
+  </si>
+  <si>
+    <t>https://downloads.wordpress.org/plugin/woocommerce.9.7.0.zip</t>
+  </si>
+  <si>
+    <t>Plugin URL</t>
+  </si>
+  <si>
+    <t>Headless Tools</t>
+  </si>
+  <si>
+    <t>GraphQL Rank Math</t>
+  </si>
+  <si>
+    <t>composer require axepress/wp-graphql-rank-math</t>
+  </si>
+  <si>
+    <t>WPGraphQL for ACF</t>
+  </si>
+  <si>
+    <t>https://downloads.wordpress.org/plugin/wpgraphql-acf.2.4.1.zip</t>
+  </si>
+  <si>
+    <t>https://woographql.com/api/downloads</t>
+  </si>
+  <si>
+    <t>WooGraphQL</t>
+  </si>
+  <si>
+    <t>WPGraphQL Tax Query</t>
+  </si>
+  <si>
+    <t>https://github.com/wp-graphql/wp-graphql-tax-query/archive/refs/tags/v0.2.0.zip</t>
+  </si>
+  <si>
+    <t>WPGraphQL Smart Cache</t>
+  </si>
+  <si>
+    <t>https://downloads.wordpress.org/plugin/wpgraphql-smart-cache.2.0.0.zip</t>
+  </si>
+  <si>
+    <t>https://github.com/Quartz/wp-graphql-content-blocks/archive/refs/tags/0.4.0.zip</t>
+  </si>
+  <si>
+    <t>WPGraphQL Content Blocks (Structured Content)</t>
+  </si>
+  <si>
+    <t>Headless Mode</t>
+  </si>
+  <si>
+    <t>https://downloads.wordpress.org/plugin/headless-mode.0.4.0.zip</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,13 +120,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,8 +155,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -380,12 +477,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93199DA0-94E4-4CD4-8F16-97CCDC3E4655}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="96" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>